--- a/Documentos/buenaFe/Lista Buena Fe Rugby.xlsx
+++ b/Documentos/buenaFe/Lista Buena Fe Rugby.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9696E835-676D-4426-A02C-EE5CE7067D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09CB0A3-CEF5-4477-A885-D677A0D52D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>"COPA CORRIENTES DIVERSA"</t>
   </si>
@@ -74,32 +81,6 @@
     <t>LISTADO DE BUENA FE CUERPO TÉCNICO</t>
   </si>
   <si>
-    <t xml:space="preserve">(*) EN CASO LLUEVA, LOS PARTIDOS DE LA CANCHA DESCUBIERTA PASARÍAN A LA CUBIERTA, EXTENDIÉNDOSE O MODIFICANDÓSE </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EL CRONOGRAMA (**) MÍNIMO DE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Merriweather"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Merriweather"/>
-      </rPr>
-      <t xml:space="preserve"> PERSONAS PARA INSCRIBIRSE. EL D. T. DEBE ESTAR DENTRO DEL LISTADO DE BUENA FE</t>
-    </r>
-  </si>
-  <si>
     <t>Les presentes en este listado -jugadores- se encuentran aptos para realizar actividad física acorde a la intensidad</t>
   </si>
   <si>
@@ -110,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,12 +184,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Merriweather"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -687,14 +662,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,20 +678,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -794,13 +769,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1132809</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>183694</xdr:rowOff>
+      <xdr:colOff>1181654</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1319683</xdr:colOff>
+      <xdr:colOff>1219200</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
@@ -831,8 +806,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5923884" y="183694"/>
-          <a:ext cx="1453699" cy="1549855"/>
+          <a:off x="5972729" y="342900"/>
+          <a:ext cx="1304371" cy="1390649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,14 +820,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>420085</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>113579</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>151679</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -887,23 +862,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1171576</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>1381124</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8780713F-9E27-A441-9D25-2528BBFFF373}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC81825-99CD-4575-8805-A6D5DA801684}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -912,7 +887,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -925,8 +900,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266701" y="219076"/>
-          <a:ext cx="1638300" cy="1638300"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2114549" cy="2114549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -939,7 +914,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B18:F33" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B18:F35" headerRowDxfId="2">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Orden" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="APELLIDOS" dataDxfId="0"/>
@@ -952,9 +927,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -992,9 +967,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1027,9 +1002,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1062,9 +1054,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1241,10 +1250,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1280,73 +1289,73 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="71">
+      <c r="B5" s="68">
         <v>2024</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
@@ -1569,13 +1578,13 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="44">
+      <c r="B29" s="38">
         <v>11</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
@@ -1583,78 +1592,83 @@
       <c r="B30" s="38">
         <v>12</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="51"/>
+      <c r="B31" s="44">
+        <v>13</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="52">
-        <v>1</v>
-      </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
+      <c r="B32" s="38">
+        <v>14</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="44">
-        <v>2</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="49"/>
+      <c r="F33" s="51"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
+      <c r="B34" s="52">
+        <v>1</v>
+      </c>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
+      <c r="B35" s="44">
+        <v>2</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="E36" s="58"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="59"/>
-      <c r="B37" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="58"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
@@ -1664,50 +1678,53 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="59"/>
+      <c r="B39" s="60" t="s">
+        <v>17</v>
+      </c>
       <c r="E39" s="58"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="59"/>
+      <c r="E40" s="58"/>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="59"/>
-      <c r="E41" s="61"/>
+      <c r="E41" s="58"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="59"/>
-      <c r="E42" s="62" t="s">
-        <v>20</v>
-      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="59"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
+      <c r="E43" s="61"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="34.5" customHeight="1">
       <c r="A44" s="59"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
+      <c r="E44" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="G44" s="63"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="64"/>
-      <c r="E45" s="58"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
       <c r="G45" s="65"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1">
-      <c r="E46" s="58"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="E47" s="58"/>
@@ -2273,20 +2290,25 @@
     <row r="234" spans="5:5" ht="15.75" customHeight="1">
       <c r="E234" s="58"/>
     </row>
-    <row r="235" spans="5:5" ht="15.75" customHeight="1"/>
+    <row r="235" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E235" s="58"/>
+    </row>
+    <row r="236" spans="5:5" ht="15" customHeight="1">
+      <c r="E236" s="58"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B3:F4"/>
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="77" orientation="portrait" r:id="rId1"/>
